--- a/ExcelFile.net.Example.net40/C_result.xlsx
+++ b/ExcelFile.net.Example.net40/C_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3470" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4030" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,11 @@
   <si>
     <r>
       <t xml:space="preserve">Age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total</t>
     </r>
   </si>
   <si>
@@ -412,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>12</v>
@@ -423,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>13</v>
@@ -451,11 +456,17 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <f si="0">SUM(E7:E11)</f>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
